--- a/StructureDefinition-ext-R5-PlanDefinition.goal.xlsx
+++ b/StructureDefinition-ext-R5-PlanDefinition.goal.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="228">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -407,15 +407,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Example codes for grouping goals for filtering or presentation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-goal-category-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -457,12 +448,6 @@
     <t>Extension.extension:description.value[x]</t>
   </si>
   <si>
-    <t>Describes goals that can be achieved.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-clinical-findings-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:priority</t>
   </si>
   <si>
@@ -494,15 +479,6 @@
     <t>Extension.extension:priority.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Indicates the level of importance associated with reaching or sustaining a goal.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-goal-priority-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:start</t>
   </si>
   <si>
@@ -534,12 +510,6 @@
     <t>Extension.extension:start.value[x]</t>
   </si>
   <si>
-    <t>Identifies the types of events that might trigger the start of a goal.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-goal-start-event-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:addresses</t>
   </si>
   <si>
@@ -571,12 +541,6 @@
     <t>Extension.extension:addresses.value[x]</t>
   </si>
   <si>
-    <t>Identifies problems, conditions, issues, or concerns that goals may address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-condition-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:documentation</t>
   </si>
   <si>
@@ -675,12 +639,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Identifies types of parameters that can be tracked to determine goal achievement.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-observation-codes-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:target.extension:detail</t>
@@ -1124,8 +1082,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.09375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2041,43 +1999,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -2085,13 +2043,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2116,16 +2074,16 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2194,7 +2152,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2297,7 +2255,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2402,7 +2360,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2445,7 +2403,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2507,7 +2465,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2536,13 +2494,13 @@
         <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2568,32 +2526,32 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
@@ -2604,7 +2562,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2612,13 +2570,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2643,14 +2601,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2719,7 +2677,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2822,7 +2780,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2927,7 +2885,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2970,7 +2928,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3032,7 +2990,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -3061,10 +3019,10 @@
         <v>123</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3091,13 +3049,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3115,7 +3073,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3127,7 +3085,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>120</v>
@@ -3135,13 +3093,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3166,14 +3124,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3242,7 +3200,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3345,7 +3303,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3450,7 +3408,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3493,7 +3451,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3555,7 +3513,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3584,10 +3542,10 @@
         <v>123</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3614,32 +3572,32 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
@@ -3650,7 +3608,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>120</v>
@@ -3658,13 +3616,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3689,14 +3647,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3765,7 +3723,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3868,7 +3826,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3973,7 +3931,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4016,7 +3974,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4078,7 +4036,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -4107,10 +4065,10 @@
         <v>123</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4137,32 +4095,32 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
@@ -4173,7 +4131,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>120</v>
@@ -4181,13 +4139,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4212,14 +4170,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4288,7 +4246,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4391,7 +4349,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4496,7 +4454,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4539,7 +4497,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4601,7 +4559,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4627,13 +4585,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4684,7 +4642,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4696,7 +4654,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>120</v>
@@ -4704,13 +4662,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4735,14 +4693,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4811,7 +4769,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4914,7 +4872,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5017,13 +4975,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5048,14 +5006,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5124,10 +5082,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5227,10 +5185,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5332,10 +5290,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5375,7 +5333,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5437,10 +5395,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5466,10 +5424,10 @@
         <v>123</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5496,32 +5454,32 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
@@ -5532,7 +5490,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>120</v>
@@ -5540,13 +5498,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5571,16 +5529,16 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5649,10 +5607,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5752,10 +5710,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5857,10 +5815,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5900,7 +5858,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5962,10 +5920,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5988,16 +5946,16 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6047,7 +6005,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6059,7 +6017,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>120</v>
@@ -6067,13 +6025,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6098,14 +6056,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6174,10 +6132,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6277,10 +6235,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6382,10 +6340,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6425,7 +6383,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6487,10 +6445,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6513,13 +6471,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6570,7 +6528,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6582,7 +6540,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>120</v>
@@ -6590,7 +6548,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6633,7 +6591,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6695,7 +6653,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -6721,13 +6679,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6778,7 +6736,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -6790,7 +6748,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>120</v>
@@ -6903,10 +6861,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6929,13 +6887,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -6986,7 +6944,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -6998,7 +6956,7 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>120</v>
